--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-organization-affiliation.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-organization-affiliation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="310">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>DSF OrganizationAffiliation</t>
+    <t>OrganizationAffiliation</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-26</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,9 +81,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>An OrganizationAffiliation to describe a parent / participating organization relationship in the DSF context with restrictions to enforce DSF specific details.</t>
-  </si>
-  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation</t>
   </si>
   <si>
     <t>Base Definition</t>
@@ -288,7 +282,7 @@
     <t>OrganizationAffiliation.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {http://dsf.dev/fhir/StructureDefinition/meta|2.0.0}
 </t>
   </si>
   <si>
@@ -346,7 +340,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -611,7 +605,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -690,7 +684,7 @@
     <t>OrganizationAffiliation.network</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -719,7 +713,7 @@
     <t>The role the participating organization providing services to the primary organization.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-role</t>
+    <t>http://hl7.org/fhir/ValueSet/organization-role|4.0.1</t>
   </si>
   <si>
     <t>.code</t>
@@ -750,6 +744,9 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>http://dsf.dev/fhir/ValueSet/organization-role|2.0.0</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -891,7 +888,7 @@
     <t>Specific specialty associated with the participating organization.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|4.0.1</t>
   </si>
   <si>
     <t>.player.HealthCareProvider[@classCode = 'PROV'].code</t>
@@ -900,7 +897,7 @@
     <t>OrganizationAffiliation.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -919,7 +916,7 @@
     <t>OrganizationAffiliation.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(HealthcareService)
+    <t xml:space="preserve">Reference(HealthcareService|4.0.1)
 </t>
   </si>
   <si>
@@ -1213,57 +1210,55 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>12</v>
@@ -1271,10 +1266,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1293,17 +1288,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.55078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.55078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.98046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="60.2265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1312,148 +1307,148 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.6328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="37.453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.1484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.23046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="67.37109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="64.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AL1" t="s" s="1">
         <v>71</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1461,28 +1456,28 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1533,22 +1528,22 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>20</v>
@@ -1556,10 +1551,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1567,31 +1562,31 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1641,13 +1636,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1664,10 +1659,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1675,10 +1670,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1687,16 +1682,16 @@
         <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1747,19 +1742,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1770,10 +1765,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1781,31 +1776,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1855,19 +1850,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -1878,10 +1873,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1889,10 +1884,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1904,16 +1899,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1939,43 +1934,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -1986,21 +1981,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2012,16 +2007,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2071,22 +2066,22 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>20</v>
@@ -2094,21 +2089,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -2120,16 +2115,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2179,13 +2174,13 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -2194,7 +2189,7 @@
         <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>20</v>
@@ -2202,21 +2197,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -2228,16 +2223,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2287,22 +2282,22 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>20</v>
@@ -2310,45 +2305,45 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2397,22 +2392,22 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>20</v>
@@ -2420,10 +2415,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2431,10 +2426,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -2443,20 +2438,20 @@
         <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2505,33 +2500,33 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2539,10 +2534,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2551,99 +2546,99 @@
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="P12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="O12" t="s" s="2">
+      <c r="R12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="P12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2651,10 +2646,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2663,20 +2658,20 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -2725,33 +2720,33 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2759,10 +2754,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2771,16 +2766,16 @@
         <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2831,22 +2826,22 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
@@ -2854,10 +2849,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2865,10 +2860,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -2880,13 +2875,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2937,13 +2932,13 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
@@ -2952,7 +2947,7 @@
         <v>20</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
@@ -2960,21 +2955,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -2986,16 +2981,16 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3033,34 +3028,34 @@
         <v>20</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AC16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AD16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
@@ -3068,10 +3063,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3079,10 +3074,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -3091,19 +3086,19 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3153,22 +3148,22 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
@@ -3176,10 +3171,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3187,10 +3182,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -3199,19 +3194,19 @@
         <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3237,46 +3232,46 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="AA18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>20</v>
@@ -3284,10 +3279,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3295,10 +3290,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3307,19 +3302,19 @@
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3369,22 +3364,22 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
@@ -3392,10 +3387,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3403,10 +3398,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3415,19 +3410,19 @@
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3477,22 +3472,22 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
@@ -3500,10 +3495,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3511,10 +3506,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -3523,16 +3518,16 @@
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3583,22 +3578,22 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
@@ -3606,10 +3601,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3617,10 +3612,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -3632,13 +3627,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3689,13 +3684,13 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
@@ -3704,7 +3699,7 @@
         <v>20</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
@@ -3712,21 +3707,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3738,16 +3733,16 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3785,34 +3780,34 @@
         <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AC23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AD23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
@@ -3820,10 +3815,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3831,10 +3826,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -3843,19 +3838,19 @@
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3905,22 +3900,22 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
@@ -3928,10 +3923,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3939,10 +3934,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -3951,19 +3946,19 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3989,46 +3984,46 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
@@ -4036,10 +4031,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4047,10 +4042,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -4059,19 +4054,19 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4121,22 +4116,22 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
@@ -4144,10 +4139,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4155,10 +4150,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4167,19 +4162,19 @@
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4229,22 +4224,22 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
@@ -4252,10 +4247,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4263,10 +4258,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4275,16 +4270,16 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4335,19 +4330,19 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
@@ -4358,10 +4353,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4369,10 +4364,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4381,16 +4376,16 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4417,46 +4412,46 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
@@ -4464,10 +4459,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4475,10 +4470,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -4490,13 +4485,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4547,13 +4542,13 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
@@ -4562,7 +4557,7 @@
         <v>20</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
@@ -4570,21 +4565,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -4596,16 +4591,16 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4643,34 +4638,34 @@
         <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AC31" t="s" s="2">
+      <c r="AF31" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AD31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="AG31" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
@@ -4678,10 +4673,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4689,10 +4684,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -4701,22 +4696,22 @@
         <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -4741,13 +4736,11 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -4765,22 +4758,22 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
@@ -4788,10 +4781,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4799,10 +4792,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -4814,13 +4807,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4871,13 +4864,13 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
@@ -4886,7 +4879,7 @@
         <v>20</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>20</v>
@@ -4894,21 +4887,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -4920,16 +4913,16 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4967,34 +4960,34 @@
         <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AC34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AD34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="AG34" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
@@ -5002,10 +4995,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5013,10 +5006,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5025,22 +5018,22 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5089,22 +5082,22 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
@@ -5112,10 +5105,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5123,10 +5116,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5135,19 +5128,19 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5197,22 +5190,22 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
@@ -5220,10 +5213,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5231,10 +5224,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -5243,20 +5236,20 @@
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -5305,22 +5298,22 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
@@ -5328,10 +5321,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5339,10 +5332,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -5351,20 +5344,20 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -5413,22 +5406,22 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>20</v>
@@ -5436,10 +5429,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5447,10 +5440,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -5459,22 +5452,22 @@
         <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -5523,22 +5516,22 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
@@ -5546,10 +5539,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5557,10 +5550,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -5569,22 +5562,22 @@
         <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -5633,22 +5626,22 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>20</v>
@@ -5656,10 +5649,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5667,10 +5660,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -5679,16 +5672,16 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5715,46 +5708,46 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Z41" t="s" s="2">
+      <c r="AA41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
@@ -5762,10 +5755,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5773,10 +5766,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -5785,16 +5778,16 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5845,33 +5838,33 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5879,10 +5872,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -5894,13 +5887,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5951,22 +5944,22 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
@@ -5974,10 +5967,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5985,10 +5978,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -5997,20 +5990,20 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6059,22 +6052,22 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>20</v>
@@ -6082,10 +6075,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6093,10 +6086,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -6108,13 +6101,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6165,22 +6158,22 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>20</v>
@@ -6188,10 +6181,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6199,10 +6192,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -6214,13 +6207,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6271,13 +6264,13 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
@@ -6286,7 +6279,7 @@
         <v>20</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>20</v>
@@ -6294,21 +6287,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -6320,16 +6313,16 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6367,34 +6360,34 @@
         <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AC47" t="s" s="2">
+      <c r="AF47" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AD47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="AG47" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>20</v>
@@ -6402,10 +6395,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6413,10 +6406,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -6425,19 +6418,19 @@
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6487,22 +6480,22 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>20</v>
@@ -6510,10 +6503,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6521,10 +6514,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -6533,19 +6526,19 @@
         <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6571,46 +6564,46 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y49" t="s" s="2">
+      <c r="AA49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AG49" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>20</v>
@@ -6618,10 +6611,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6629,10 +6622,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -6641,19 +6634,19 @@
         <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6703,22 +6696,22 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>20</v>
@@ -6726,10 +6719,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6737,10 +6730,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -6749,19 +6742,19 @@
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -6811,22 +6804,22 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>20</v>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-organization-affiliation.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
